--- a/team_results/kalpa/xlsx_kalpa_2_upcoming_games_data.xlsx
+++ b/team_results/kalpa/xlsx_kalpa_2_upcoming_games_data.xlsx
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>422</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>428</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>435</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>438</v>

--- a/team_results/kalpa/xlsx_kalpa_2_upcoming_games_data.xlsx
+++ b/team_results/kalpa/xlsx_kalpa_2_upcoming_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,21 +505,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>kalpa</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>hpk</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -535,21 +535,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>kalpa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>hifk</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -562,24 +562,24 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -592,19 +592,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -622,14 +622,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -649,66 +649,6 @@
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>438</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2022-03-19</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ilves</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>kalpa</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>445</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2022-03-22</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>kalpa</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>jyp</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
